--- a/0622工作内容/+++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++/f5cfe240adcabd736dc4af2afed86e07.xlsx
+++ b/0622工作内容/+++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++/f5cfe240adcabd736dc4af2afed86e07.xlsx
@@ -1,285 +1,151 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\myGGGt\0622工作内容\+++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++++\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="-105" windowWidth="10710" windowHeight="11700"/>
+    <workbookView xWindow="1680" yWindow="-108" windowWidth="10716" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="식기 용품 리스트" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'식기 용품 리스트'!$A$1:$O$37</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="72">
   <si>
     <t>Made In Korea</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테디 식판</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>테디 안전식판</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>테디 키즈 스푼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 테디 키즈 포크</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>테디 키즈 스푼 포크 세트</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>테디 엔젤 스푼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>테디 엔젤 포크</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>테디 엔젤 스푼 포크 세트</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>테디 이유식 스푼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>테디 젓가락</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>스프볼</t>
-  </si>
-  <si>
-    <t>일반형식기(대)</t>
-  </si>
-  <si>
-    <t>일반형식기(소)</t>
-  </si>
-  <si>
-    <t>빨대컵세트</t>
-  </si>
-  <si>
-    <t>에어홀</t>
-  </si>
-  <si>
-    <t>테디 이지컵</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3종 세트 A
-식판
-이지컵
-엔젤 스푼포크 세트</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3종 세트 B
-식판
-이지컵
-키즈 스푼포크 세트</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3종 세트 C
-안전식판
-이지컵
-엔젤 스푼포크 세트</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3종 세트 D
-안전식판
-이지컵
-키즈 스푼포크 세트</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5종 세트 A
-식판
-엔젤 스푼포크 세트
-이지컵
-식기(소)
-이유식 스푼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>TB16A001G</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Green</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>사탕수수</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TB16A001O</t>
   </si>
   <si>
-    <t>Orange</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>TB16A002G</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TB16A002O</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB16A003G</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB16A003O</t>
-  </si>
-  <si>
-    <t>TB16A004G</t>
-  </si>
-  <si>
-    <t>TB16A004O</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TB16A005G</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> TB16A005O</t>
   </si>
   <si>
-    <t>TB16A006G</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB16A006O</t>
-  </si>
-  <si>
-    <t>TB16A007G</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB16A007O</t>
-  </si>
-  <si>
     <t>TB16A008G</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TB16A008O</t>
   </si>
   <si>
     <t>TB16A009G</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TB16A009O</t>
   </si>
   <si>
     <t>TB16A010G</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TB16A010O</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TB16A011G</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TB16A011O</t>
   </si>
   <si>
     <t>TB16A012G</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TB16A012O</t>
   </si>
   <si>
     <t>TB16A013G</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TB16A013O</t>
   </si>
   <si>
     <t>TB16A014G</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TB16A014O</t>
   </si>
   <si>
     <t>TB16A015G</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> TB16A015O</t>
   </si>
   <si>
     <t>TB16A021G</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TB16A021O</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TB16A016G</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> TB16A016O</t>
   </si>
   <si>
     <t>TB16A017G</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TB16A017O</t>
   </si>
   <si>
     <t>TB16A018G</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TB16A018O</t>
   </si>
   <si>
     <t>TB16A019G</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> TB16A019O</t>
   </si>
   <si>
     <t>TB16A020G</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TB16A020O</t>
@@ -306,10 +172,6 @@
   </si>
   <si>
     <t>컬러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소비자가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -346,16 +208,16 @@
   </si>
   <si>
     <t>Green</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Orange</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>옥수수
 100%</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>FOB 인천항</t>
@@ -371,27 +233,112 @@
 소비자가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>泰迪食盘1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰迪食盘2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰迪 儿童勺叉套装</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰迪天使 儿童勺叉套装</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰迪 辅食勺</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰迪 筷子</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤碗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通碗碟(大)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通碗碟(小)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸管杯套装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에어홀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5套装 A
+식판
+엔젤 스푼포크 세트
+이지컵
+식기(소)
+이유식 스푼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3套装 D
+안전식판
+이지컵
+키즈 스푼포크 세트</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3套装 C
+안전식판
+이지컵
+엔젤 스푼포크 세트</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3套装 B
+식판
+이지컵
+키즈 스푼포크 세트</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3套装 A
+식판
+이지컵
+엔젤 스푼포크 세트</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰迪 两耳杯</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;₩&quot;#,##0;[Red]\-&quot;₩&quot;#,##0"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0;[Red]\-&quot;₩&quot;#,##0"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -399,7 +346,7 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -408,7 +355,7 @@
       <b/>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -416,16 +363,7 @@
     <font>
       <b/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -433,7 +371,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -455,7 +393,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -469,7 +407,7 @@
     <font>
       <b/>
       <sz val="9"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -498,7 +436,7 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -518,7 +456,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -600,64 +538,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="64"/>
       </left>
@@ -683,19 +563,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -806,19 +673,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -831,94 +711,91 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -927,46 +804,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔[0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -974,6 +842,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -990,7 +861,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1285875</xdr:colOff>
+      <xdr:colOff>1209675</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>483054</xdr:rowOff>
     </xdr:to>
@@ -1035,8 +906,8 @@
       <xdr:rowOff>118382</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>847</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>487136</xdr:rowOff>
     </xdr:to>
@@ -1127,8 +998,8 @@
       <xdr:rowOff>27214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1228725</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2752</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>605518</xdr:rowOff>
     </xdr:to>
@@ -1220,7 +1091,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:colOff>1209675</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>551090</xdr:rowOff>
     </xdr:to>
@@ -1495,8 +1366,8 @@
       <xdr:rowOff>6803</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>847</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>566056</xdr:rowOff>
     </xdr:to>
@@ -2232,7 +2103,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1323975</xdr:colOff>
+      <xdr:colOff>1209675</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>530678</xdr:rowOff>
     </xdr:to>
@@ -2277,8 +2148,8 @@
       <xdr:rowOff>549728</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1228725</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2752</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>594632</xdr:rowOff>
     </xdr:to>
@@ -2457,8 +2328,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9612966" y="863974"/>
-          <a:ext cx="3034713" cy="1211515"/>
+          <a:off x="8663195" y="852280"/>
+          <a:ext cx="2761776" cy="1202162"/>
           <a:chOff x="8362950" y="847726"/>
           <a:chExt cx="3038053" cy="1223804"/>
         </a:xfrm>
@@ -2831,8 +2702,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9589434" y="2109507"/>
-          <a:ext cx="3039195" cy="1207434"/>
+          <a:off x="8653090" y="2088460"/>
+          <a:ext cx="2752831" cy="1198079"/>
           <a:chOff x="8362950" y="847726"/>
           <a:chExt cx="3038053" cy="1223804"/>
         </a:xfrm>
@@ -3205,8 +3076,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9603441" y="3316941"/>
-          <a:ext cx="3034713" cy="32657"/>
+          <a:off x="8653670" y="3286539"/>
+          <a:ext cx="2761776" cy="32657"/>
           <a:chOff x="8362950" y="847726"/>
           <a:chExt cx="3038053" cy="1223804"/>
         </a:xfrm>
@@ -3579,8 +3450,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9603441" y="3383616"/>
-          <a:ext cx="3034713" cy="1188384"/>
+          <a:off x="8653670" y="3353214"/>
+          <a:ext cx="2761776" cy="1179029"/>
           <a:chOff x="8362950" y="847726"/>
           <a:chExt cx="3038053" cy="1223804"/>
         </a:xfrm>
@@ -3953,8 +3824,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9603441" y="4572000"/>
-          <a:ext cx="3034713" cy="23132"/>
+          <a:off x="8653670" y="4532243"/>
+          <a:ext cx="2761776" cy="23132"/>
           <a:chOff x="8362950" y="847726"/>
           <a:chExt cx="3038053" cy="1223804"/>
         </a:xfrm>
@@ -4327,8 +4198,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9603441" y="4638675"/>
-          <a:ext cx="3034713" cy="1211516"/>
+          <a:off x="8653670" y="4598918"/>
+          <a:ext cx="2761776" cy="1202162"/>
           <a:chOff x="8362950" y="847726"/>
           <a:chExt cx="3038053" cy="1223804"/>
         </a:xfrm>
@@ -4701,8 +4572,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9603441" y="5903259"/>
-          <a:ext cx="3034713" cy="1211516"/>
+          <a:off x="8653670" y="5854148"/>
+          <a:ext cx="2761776" cy="1202161"/>
           <a:chOff x="8362950" y="847726"/>
           <a:chExt cx="3038053" cy="1223804"/>
         </a:xfrm>
@@ -5075,8 +4946,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9603441" y="7158318"/>
-          <a:ext cx="3034713" cy="1211515"/>
+          <a:off x="8653670" y="7099852"/>
+          <a:ext cx="2761776" cy="1202162"/>
           <a:chOff x="8362950" y="847726"/>
           <a:chExt cx="3038053" cy="1223804"/>
         </a:xfrm>
@@ -5449,8 +5320,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9603441" y="8403851"/>
-          <a:ext cx="3034713" cy="1211516"/>
+          <a:off x="8653670" y="8336032"/>
+          <a:ext cx="2761776" cy="1202161"/>
           <a:chOff x="8362950" y="847726"/>
           <a:chExt cx="3038053" cy="1223804"/>
         </a:xfrm>
@@ -5823,8 +5694,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9603441" y="9668435"/>
-          <a:ext cx="3034713" cy="1211516"/>
+          <a:off x="8653670" y="9591261"/>
+          <a:ext cx="2761776" cy="1202161"/>
           <a:chOff x="8362950" y="847726"/>
           <a:chExt cx="3038053" cy="1223804"/>
         </a:xfrm>
@@ -6197,8 +6068,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9603441" y="10923494"/>
-          <a:ext cx="3034713" cy="1211516"/>
+          <a:off x="8653670" y="10836965"/>
+          <a:ext cx="2761776" cy="1202162"/>
           <a:chOff x="8362950" y="847726"/>
           <a:chExt cx="3038053" cy="1223804"/>
         </a:xfrm>
@@ -6571,8 +6442,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9603441" y="12159503"/>
-          <a:ext cx="3034713" cy="1211516"/>
+          <a:off x="8653670" y="12063620"/>
+          <a:ext cx="2761776" cy="1202161"/>
           <a:chOff x="8362950" y="847726"/>
           <a:chExt cx="3038053" cy="1223804"/>
         </a:xfrm>
@@ -6945,8 +6816,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9612966" y="13414562"/>
-          <a:ext cx="3034713" cy="1211516"/>
+          <a:off x="8663195" y="13309324"/>
+          <a:ext cx="2761776" cy="1202161"/>
           <a:chOff x="8362950" y="847726"/>
           <a:chExt cx="3038053" cy="1223804"/>
         </a:xfrm>
@@ -7319,8 +7190,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9589434" y="14679146"/>
-          <a:ext cx="3039195" cy="1211515"/>
+          <a:off x="8653090" y="14564553"/>
+          <a:ext cx="2752831" cy="1202162"/>
           <a:chOff x="8362950" y="847726"/>
           <a:chExt cx="3038053" cy="1223804"/>
         </a:xfrm>
@@ -7693,8 +7564,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9603441" y="15953254"/>
-          <a:ext cx="3034713" cy="1211516"/>
+          <a:off x="8653670" y="15829308"/>
+          <a:ext cx="2761776" cy="1202161"/>
           <a:chOff x="8362950" y="847726"/>
           <a:chExt cx="3038053" cy="1223804"/>
         </a:xfrm>
@@ -8067,8 +7938,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9579909" y="17208313"/>
-          <a:ext cx="3039195" cy="1211516"/>
+          <a:off x="8651185" y="17075012"/>
+          <a:ext cx="2745211" cy="1202161"/>
           <a:chOff x="8362950" y="847726"/>
           <a:chExt cx="3038053" cy="1223804"/>
         </a:xfrm>
@@ -8441,8 +8312,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9603441" y="18453847"/>
-          <a:ext cx="3034713" cy="1211516"/>
+          <a:off x="8653670" y="18311191"/>
+          <a:ext cx="2761776" cy="1202162"/>
           <a:chOff x="8362950" y="847726"/>
           <a:chExt cx="3038053" cy="1223804"/>
         </a:xfrm>
@@ -8815,8 +8686,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9579909" y="19680331"/>
-          <a:ext cx="3039195" cy="1211516"/>
+          <a:off x="8651185" y="19528321"/>
+          <a:ext cx="2745211" cy="1202161"/>
           <a:chOff x="8362950" y="847726"/>
           <a:chExt cx="3038053" cy="1223804"/>
         </a:xfrm>
@@ -9189,8 +9060,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9603441" y="20925865"/>
-          <a:ext cx="3034713" cy="1212636"/>
+          <a:off x="8653670" y="20764500"/>
+          <a:ext cx="2761776" cy="1207959"/>
           <a:chOff x="8362950" y="847726"/>
           <a:chExt cx="3038053" cy="1223804"/>
         </a:xfrm>
@@ -11464,151 +11335,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="그림 103" descr="양손 컵.bmp"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect l="16418" t="25169" r="18462" b="25232"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="942975" y="24624846"/>
-          <a:ext cx="476250" cy="504825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:srcRect l="6927" t="16061" r="9099" b="14082"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1181100" y="25905278"/>
-          <a:ext cx="400050" cy="466725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>971550</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>971550</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>73479</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="그림 110" descr="baby weaning spoon.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:srcRect l="29361" t="12148" r="29642" b="11913"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1228725" y="26391053"/>
-          <a:ext cx="257175" cy="673554"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -11650,7 +11378,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11682,9 +11410,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11716,6 +11445,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -11891,1149 +11621,1214 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.625" style="3" customWidth="1"/>
-    <col min="9" max="10" width="5.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.6640625" style="3" customWidth="1"/>
+    <col min="9" max="10" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="3" customWidth="1"/>
     <col min="13" max="14" width="12" style="3" customWidth="1"/>
-    <col min="15" max="15" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.77734375" style="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" customHeight="1">
-      <c r="A1" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
+      <c r="A1" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B2" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
+      <c r="B2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="27" customHeight="1" thickBot="1">
-      <c r="A3" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>80</v>
+      <c r="A3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="49.5" customHeight="1">
-      <c r="A4" s="37">
+      <c r="A4" s="36">
         <v>1</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15">
+        <v>8809505510005</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="41">
+        <v>22100</v>
+      </c>
+      <c r="H4" s="26">
+        <f>G4*0.5</f>
+        <v>11050</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="42"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="49.5" customHeight="1" thickBot="1">
+      <c r="A5" s="33"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="19">
-        <v>8809505510005</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="38">
-        <v>17000</v>
-      </c>
-      <c r="H4" s="38">
-        <f>G4*0.5</f>
-        <v>8500</v>
-      </c>
-      <c r="I4" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="49.5" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="E5" s="6">
         <v>8809505510012</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="24"/>
+      <c r="F5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="40"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="37"/>
     </row>
     <row r="6" spans="1:15" ht="49.5" customHeight="1">
-      <c r="A6" s="34">
+      <c r="A6" s="33">
         <v>2</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="11">
+      <c r="E6" s="7">
         <v>8809505510029</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="29">
-        <v>14000</v>
-      </c>
-      <c r="H6" s="29">
+      <c r="F6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="24">
+        <v>18200</v>
+      </c>
+      <c r="H6" s="24">
         <f t="shared" ref="H6" si="0">G6*0.5</f>
-        <v>7000</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="24" t="s">
+        <v>9100</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="37" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="49.5" customHeight="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="10">
+    <row r="7" spans="1:15" ht="49.5" customHeight="1" thickBot="1">
+      <c r="A7" s="33"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="6">
         <v>8809505510036</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="24"/>
+      <c r="F7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="37"/>
     </row>
     <row r="8" spans="1:15" ht="49.5" customHeight="1">
-      <c r="A8" s="34">
+      <c r="A8" s="33">
         <v>5</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="7">
+        <v>8809505510081</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="24">
+        <v>10400</v>
+      </c>
+      <c r="H8" s="24">
+        <f t="shared" ref="H8" si="1">G8*0.5</f>
+        <v>5200</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="49.5" customHeight="1" thickBot="1">
+      <c r="A9" s="33"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="11">
-        <v>8809505510081</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" s="29">
-        <v>8000</v>
-      </c>
-      <c r="H8" s="29">
-        <f t="shared" ref="H8" si="1">G8*0.5</f>
-        <v>4000</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="49.5" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="E9" s="6">
         <v>8809505510098</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="24"/>
+      <c r="F9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="37"/>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A10" s="34">
+      <c r="A10" s="33">
         <v>8</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="7">
         <v>8809505510142</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="29">
+      <c r="F10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="24">
         <v>8000</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="24">
         <f t="shared" ref="H10" si="2">G10*0.5</f>
         <v>4000</v>
       </c>
-      <c r="I10" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="24" t="s">
+      <c r="I10" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="37" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A11" s="34"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="10">
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1" thickBot="1">
+      <c r="A11" s="33"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="6">
         <v>8809505510159</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="24"/>
+      <c r="F11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="37"/>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A12" s="34">
+      <c r="A12" s="33">
         <v>9</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="7">
+        <v>8809505510166</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="24">
+        <v>10400</v>
+      </c>
+      <c r="H12" s="24">
+        <f t="shared" ref="H12" si="3">G12*0.5</f>
+        <v>5200</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1" thickBot="1">
+      <c r="A13" s="33"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="11">
-        <v>8809505510166</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" s="29">
-        <v>4500</v>
-      </c>
-      <c r="H12" s="29">
-        <f t="shared" ref="H12" si="3">G12*0.5</f>
-        <v>2250</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A13" s="34"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="E13" s="6">
         <v>8809505510173</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="24"/>
+      <c r="F13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="37"/>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A14" s="34">
+      <c r="A14" s="33">
         <v>10</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="11">
+      <c r="E14" s="7">
         <v>8809505510180</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="29">
-        <v>4500</v>
-      </c>
-      <c r="H14" s="29">
+      <c r="F14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="24">
+        <v>5850</v>
+      </c>
+      <c r="H14" s="24">
         <f t="shared" ref="H14" si="4">G14*0.5</f>
-        <v>2250</v>
-      </c>
-      <c r="I14" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="24" t="s">
+        <v>2925</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="37" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A15" s="34"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="10">
+    <row r="15" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1" thickBot="1">
+      <c r="A15" s="33"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="6">
         <v>8809505510197</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="24"/>
+      <c r="F15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="37"/>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A16" s="34">
+      <c r="A16" s="33">
         <v>11</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="11">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="7">
         <v>8809505510203</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="29">
-        <v>9000</v>
-      </c>
-      <c r="H16" s="29">
+      <c r="F16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="24">
+        <v>11700</v>
+      </c>
+      <c r="H16" s="24">
         <f t="shared" ref="H16" si="5">G16*0.5</f>
-        <v>4500</v>
-      </c>
-      <c r="I16" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="24" t="s">
+        <v>5850</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="37" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A17" s="34"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="10">
+    <row r="17" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1" thickBot="1">
+      <c r="A17" s="33"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="6">
         <v>8809505510210</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="24"/>
+      <c r="F17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="37"/>
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A18" s="34">
+      <c r="A18" s="33">
         <v>12</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="11">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="7">
         <v>8809505510227</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="29">
-        <v>9000</v>
-      </c>
-      <c r="H18" s="29">
+      <c r="F18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="24">
+        <v>11700</v>
+      </c>
+      <c r="H18" s="24">
         <f t="shared" ref="H18" si="6">G18*0.5</f>
-        <v>4500</v>
-      </c>
-      <c r="I18" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="24" t="s">
+        <v>5850</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="37" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A19" s="34"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="6" t="s">
+    <row r="19" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1" thickBot="1">
+      <c r="A19" s="33"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="6">
+        <v>8809505510234</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="10">
-        <v>8809505510234</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="37"/>
     </row>
     <row r="20" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A20" s="34">
+      <c r="A20" s="33">
         <v>13</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="7">
+        <v>8809505510302</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="11">
-        <v>8809505510302</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="29">
-        <v>8000</v>
-      </c>
-      <c r="H20" s="29">
+      <c r="G20" s="24">
+        <v>10400</v>
+      </c>
+      <c r="H20" s="24">
         <f t="shared" ref="H20" si="7">G20*0.5</f>
-        <v>4000</v>
-      </c>
-      <c r="I20" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="24" t="s">
+        <v>5200</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" s="21"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="37" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A21" s="34"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="10">
+    <row r="21" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1" thickBot="1">
+      <c r="A21" s="33"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="6">
         <v>8809505510319</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="24"/>
+      <c r="F21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="37"/>
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A22" s="34">
+      <c r="A22" s="33">
         <v>14</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="11">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="7">
         <v>8809505510241</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" s="29">
-        <v>12000</v>
-      </c>
-      <c r="H22" s="29">
+      <c r="F22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="24">
+        <v>15600</v>
+      </c>
+      <c r="H22" s="24">
         <f t="shared" ref="H22" si="8">G22*0.5</f>
-        <v>6000</v>
-      </c>
-      <c r="I22" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="24" t="s">
+        <v>7800</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22" s="21"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="37" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A23" s="34"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="10">
+    <row r="23" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1" thickBot="1">
+      <c r="A23" s="33"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="6">
         <v>8809505510258</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="24"/>
+      <c r="F23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="37"/>
     </row>
     <row r="24" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A24" s="34">
+      <c r="A24" s="33">
         <v>15</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="11">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="7">
         <v>8809505510265</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G24" s="29">
-        <v>6000</v>
-      </c>
-      <c r="H24" s="29">
+      <c r="F24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="24">
+        <v>7800</v>
+      </c>
+      <c r="H24" s="24">
         <f t="shared" ref="H24" si="9">G24*0.5</f>
-        <v>3000</v>
-      </c>
-      <c r="I24" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="24" t="s">
+        <v>3900</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J24" s="21"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="37" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A25" s="34"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="10">
+    <row r="25" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1" thickBot="1">
+      <c r="A25" s="33"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="6">
         <v>8809505510272</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="24"/>
+      <c r="F25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="37"/>
     </row>
     <row r="26" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A26" s="34">
+      <c r="A26" s="33">
         <v>16</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="11">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="7">
         <v>8809505510289</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G26" s="29">
-        <v>8000</v>
-      </c>
-      <c r="H26" s="29">
+      <c r="F26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="24">
+        <v>10400</v>
+      </c>
+      <c r="H26" s="24">
         <f t="shared" ref="H26" si="10">G26*0.5</f>
-        <v>4000</v>
-      </c>
-      <c r="I26" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="24" t="s">
+        <v>5200</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" s="21"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="37" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A27" s="34"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="10">
+    <row r="27" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1" thickBot="1">
+      <c r="A27" s="33"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="6">
         <v>8809505510296</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="24"/>
+      <c r="F27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="37"/>
     </row>
     <row r="28" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A28" s="34">
+      <c r="A28" s="33">
         <v>17</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G28" s="29">
-        <v>33000</v>
-      </c>
-      <c r="H28" s="29">
+      <c r="B28" s="23"/>
+      <c r="C28" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="24">
+        <v>42900</v>
+      </c>
+      <c r="H28" s="24">
         <f t="shared" ref="H28" si="11">G28*0.5</f>
-        <v>16500</v>
-      </c>
-      <c r="I28" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="24" t="s">
+        <v>21450</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J28" s="21"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="37" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A29" s="34"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="24"/>
+    <row r="29" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1" thickBot="1">
+      <c r="A29" s="33"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="37"/>
     </row>
     <row r="30" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A30" s="34">
+      <c r="A30" s="33">
         <v>18</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="29">
-        <v>33000</v>
-      </c>
-      <c r="H30" s="29">
+      <c r="B30" s="23"/>
+      <c r="C30" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="24">
+        <v>42900</v>
+      </c>
+      <c r="H30" s="24">
         <f t="shared" ref="H30" si="12">G30*0.5</f>
-        <v>16500</v>
-      </c>
-      <c r="I30" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="24" t="s">
+        <v>21450</v>
+      </c>
+      <c r="I30" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J30" s="21"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="37" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A31" s="34"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="24"/>
+    <row r="31" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1" thickBot="1">
+      <c r="A31" s="33"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="37"/>
     </row>
     <row r="32" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A32" s="34">
+      <c r="A32" s="33">
         <v>19</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G32" s="29">
-        <v>30000</v>
-      </c>
-      <c r="H32" s="29">
+      <c r="B32" s="23"/>
+      <c r="C32" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="24">
+        <v>39000</v>
+      </c>
+      <c r="H32" s="24">
         <f t="shared" ref="H32" si="13">G32*0.5</f>
-        <v>15000</v>
-      </c>
-      <c r="I32" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="24" t="s">
+        <v>19500</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J32" s="21"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="37" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A33" s="34"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="24"/>
+    <row r="33" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1" thickBot="1">
+      <c r="A33" s="33"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="17"/>
+      <c r="F33" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="37"/>
     </row>
     <row r="34" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A34" s="34">
+      <c r="A34" s="33">
         <v>20</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G34" s="29">
-        <v>30000</v>
-      </c>
-      <c r="H34" s="29">
+      <c r="B34" s="23"/>
+      <c r="C34" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="24">
+        <v>39000</v>
+      </c>
+      <c r="H34" s="24">
         <f t="shared" ref="H34" si="14">G34*0.5</f>
-        <v>15000</v>
-      </c>
-      <c r="I34" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="24" t="s">
+        <v>19500</v>
+      </c>
+      <c r="I34" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J34" s="21"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="37" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A35" s="34"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="24"/>
+    <row r="35" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1" thickBot="1">
+      <c r="A35" s="33"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="37"/>
     </row>
     <row r="36" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A36" s="34">
+      <c r="A36" s="33">
         <v>21</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="B36" s="23"/>
+      <c r="C36" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G36" s="29">
-        <v>45500</v>
-      </c>
-      <c r="H36" s="29">
+      <c r="D36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="17"/>
+      <c r="F36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="24">
+        <v>59150</v>
+      </c>
+      <c r="H36" s="24">
         <f t="shared" ref="H36" si="15">G36*0.5</f>
-        <v>22750</v>
-      </c>
-      <c r="I36" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="24" t="s">
+        <v>29575</v>
+      </c>
+      <c r="I36" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J36" s="21"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="37" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="1" customFormat="1" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A37" s="35"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="28"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="206">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
+  <mergeCells count="189">
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H34:H35"/>
     <mergeCell ref="I36:I37"/>
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="I26:I27"/>
@@ -13058,139 +12853,57 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="H12:H13"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.17" right="0.17" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13200,1106 +12913,4 @@
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
-  <cols>
-    <col min="1" max="1" width="3.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="3" customWidth="1"/>
-    <col min="5" max="7" width="8.625" style="3" customWidth="1"/>
-    <col min="8" max="11" width="10.625" style="3" customWidth="1"/>
-    <col min="12" max="13" width="12" style="3" customWidth="1"/>
-    <col min="14" max="14" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.75" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="26.25">
-      <c r="A1" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-    </row>
-    <row r="2" spans="1:14" ht="7.5" customHeight="1" thickBot="1">
-      <c r="B2" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-    </row>
-    <row r="3" spans="1:14" ht="21" customHeight="1" thickBot="1">
-      <c r="A3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="49.5" customHeight="1" thickTop="1">
-      <c r="A4" s="46">
-        <v>1</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="47">
-        <v>17000</v>
-      </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="42" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="49.5" customHeight="1">
-      <c r="A5" s="43"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="24"/>
-    </row>
-    <row r="6" spans="1:14" ht="49.5" customHeight="1">
-      <c r="A6" s="43">
-        <v>2</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="29">
-        <v>14000</v>
-      </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="49.5" customHeight="1">
-      <c r="A7" s="43"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="24"/>
-    </row>
-    <row r="8" spans="1:14" ht="49.5" customHeight="1">
-      <c r="A8" s="43">
-        <v>3</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="29">
-        <v>4500</v>
-      </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="49.5" customHeight="1">
-      <c r="A9" s="43"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="24"/>
-    </row>
-    <row r="10" spans="1:14" ht="49.5" customHeight="1">
-      <c r="A10" s="43">
-        <v>4</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="29">
-        <v>4500</v>
-      </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="49.5" customHeight="1">
-      <c r="A11" s="43"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="24"/>
-    </row>
-    <row r="12" spans="1:14" ht="49.5" customHeight="1">
-      <c r="A12" s="43">
-        <v>5</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="29">
-        <v>8000</v>
-      </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="49.5" customHeight="1">
-      <c r="A13" s="43"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="24"/>
-    </row>
-    <row r="14" spans="1:14" ht="49.5" customHeight="1">
-      <c r="A14" s="43">
-        <v>6</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="29">
-        <v>4500</v>
-      </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="49.5" customHeight="1">
-      <c r="A15" s="43"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="24"/>
-    </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A16" s="43">
-        <v>7</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="29">
-        <v>4500</v>
-      </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A17" s="43"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="24"/>
-    </row>
-    <row r="18" spans="1:14" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A18" s="43">
-        <v>8</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="29">
-        <v>8000</v>
-      </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A19" s="43"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="24"/>
-    </row>
-    <row r="20" spans="1:14" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A20" s="43">
-        <v>9</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="29">
-        <v>4500</v>
-      </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A21" s="43"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="24"/>
-    </row>
-    <row r="22" spans="1:14" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A22" s="43">
-        <v>10</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="29">
-        <v>4500</v>
-      </c>
-      <c r="G22" s="29"/>
-      <c r="H22" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A23" s="43"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="24"/>
-    </row>
-    <row r="24" spans="1:14" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A24" s="43">
-        <v>11</v>
-      </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="29">
-        <v>9000</v>
-      </c>
-      <c r="G24" s="29"/>
-      <c r="H24" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A25" s="43"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="24"/>
-    </row>
-    <row r="26" spans="1:14" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A26" s="43">
-        <v>12</v>
-      </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="29">
-        <v>9000</v>
-      </c>
-      <c r="G26" s="29"/>
-      <c r="H26" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A27" s="43"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="24"/>
-    </row>
-    <row r="28" spans="1:14" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A28" s="43">
-        <v>13</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="29">
-        <v>8000</v>
-      </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A29" s="43"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="24"/>
-    </row>
-    <row r="30" spans="1:14" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A30" s="43">
-        <v>14</v>
-      </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="29">
-        <v>12000</v>
-      </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A31" s="43"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="24"/>
-    </row>
-    <row r="32" spans="1:14" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A32" s="43">
-        <v>15</v>
-      </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="29">
-        <v>6000</v>
-      </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A33" s="43"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="24"/>
-    </row>
-    <row r="34" spans="1:14" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A34" s="43">
-        <v>16</v>
-      </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" s="29">
-        <v>8000</v>
-      </c>
-      <c r="G34" s="29"/>
-      <c r="H34" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" s="1" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A35" s="43"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="24"/>
-    </row>
-  </sheetData>
-  <mergeCells count="194">
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>